--- a/surveys-3nf.xlsx
+++ b/surveys-3nf.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhrdrive-my.sharepoint.com/personal/milosz_rzyczniak_malopolska_zhr_pl/Documents/Dokumenty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DBAB9941-2ECF-4A0E-9781-86829164224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53AD00-C1AF-4A8D-9911-04F210D1FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{8989AFB4-A7F9-492D-975D-505CD3A9BC15}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{8989AFB4-A7F9-492D-975D-505CD3A9BC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Creator</t>
   </si>
@@ -63,30 +62,18 @@
     <t>description</t>
   </si>
   <si>
-    <t>createDate</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>isObligatory</t>
-  </si>
-  <si>
     <t>QuestionType</t>
   </si>
   <si>
     <t>FillingQuestionaries</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -96,64 +83,79 @@
     <t>value</t>
   </si>
   <si>
-    <t>isCorrect</t>
-  </si>
-  <si>
-    <t>isEditable</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>answerDate</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
-    <t>userLogin</t>
-  </si>
-  <si>
     <t>pk</t>
   </si>
   <si>
     <t>fk(user)</t>
   </si>
   <si>
-    <t>creatorID</t>
-  </si>
-  <si>
     <t>fk(Creator)</t>
   </si>
   <si>
-    <t>questionaryID</t>
-  </si>
-  <si>
     <t>fk(Questionary)</t>
   </si>
   <si>
-    <t>questionTypeName</t>
-  </si>
-  <si>
     <t>fk(QuestionType)</t>
   </si>
   <si>
-    <t>questionID</t>
-  </si>
-  <si>
     <t>fk(Question)</t>
   </si>
   <si>
-    <t>optionID</t>
-  </si>
-  <si>
     <t>fk(Option)</t>
   </si>
   <si>
-    <t>FillingQuestionaryID</t>
-  </si>
-  <si>
     <t>fk(FillingQuestionary)</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>is_obligatory</t>
+  </si>
+  <si>
+    <t>question_type_name</t>
+  </si>
+  <si>
+    <t>user_login</t>
+  </si>
+  <si>
+    <t>questionary_login</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>questionary_id</t>
+  </si>
+  <si>
+    <t>answer_date</t>
+  </si>
+  <si>
+    <t>option_id</t>
+  </si>
+  <si>
+    <t>filling_questionaryI_id</t>
+  </si>
+  <si>
+    <t>is_correct</t>
+  </si>
+  <si>
+    <t>is_editable</t>
+  </si>
+  <si>
+    <t>question_id</t>
   </si>
 </sst>
 </file>
@@ -251,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,15 +265,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,18 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,31 +631,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22AC7D4-7047-4127-9D99-D3A2E27545E9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -665,24 +664,24 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -695,26 +694,26 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -727,36 +726,36 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -769,162 +768,169 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +941,7 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
